--- a/output/fit_clients/fit_round_344.xlsx
+++ b/output/fit_clients/fit_round_344.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2332979547.342753</v>
+        <v>2208694283.609756</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0743366348771583</v>
+        <v>0.09372297079212571</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0404236247802616</v>
+        <v>0.04164871607010755</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1166489814.134632</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2040727816.421783</v>
+        <v>1949061623.52674</v>
       </c>
       <c r="F3" t="n">
-        <v>0.16629906589644</v>
+        <v>0.1311138135544424</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04456769332633201</v>
+        <v>0.0412642192118369</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1020363954.582386</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3329527184.388214</v>
+        <v>4777972495.912186</v>
       </c>
       <c r="F4" t="n">
-        <v>0.115015957407456</v>
+        <v>0.1666867803386663</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03373661780757153</v>
+        <v>0.03718458263244758</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>124</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1664763558.882013</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3213609759.268434</v>
+        <v>3352120566.710268</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08386440712870603</v>
+        <v>0.08661542297964182</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04220418443770904</v>
+        <v>0.03994852484811535</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>131</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1606804935.366936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2116504778.1168</v>
+        <v>1781006025.392164</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1431497919829086</v>
+        <v>0.128360454349805</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05527509134005019</v>
+        <v>0.03939430914490818</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1058252406.052525</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2816047818.275249</v>
+        <v>2155682964.433328</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1020440533304701</v>
+        <v>0.07535363458081763</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04580949146675546</v>
+        <v>0.04752945954748153</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>107</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1408023891.754544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3486602694.268094</v>
+        <v>3833464665.727024</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2066080133637881</v>
+        <v>0.2194953530097134</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02596332645572716</v>
+        <v>0.02525492062039538</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>109</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1743301454.402382</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2304542918.609287</v>
+        <v>1928044649.963453</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1198850038681065</v>
+        <v>0.1438866557537952</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03482159118193423</v>
+        <v>0.03649161920681315</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1152271443.671065</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3957770756.861379</v>
+        <v>4544754301.602886</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1351712874889809</v>
+        <v>0.2033006421960578</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04589636147299928</v>
+        <v>0.04937745821174195</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>145</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1978885397.091632</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3402993761.708701</v>
+        <v>3979736324.836414</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1887383450530299</v>
+        <v>0.1259319041533194</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04745404315425329</v>
+        <v>0.03416825424666027</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>142</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1701496851.950237</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2159272925.925987</v>
+        <v>3196313827.986773</v>
       </c>
       <c r="F12" t="n">
-        <v>0.144205803682865</v>
+        <v>0.1632858338874764</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04423072984479443</v>
+        <v>0.04498860730583332</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>118</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1079636404.010099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3492239931.892562</v>
+        <v>3385881089.264128</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08384181441494393</v>
+        <v>0.08528328846472452</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02224766058312808</v>
+        <v>0.02432202181010033</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>115</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1746120046.668801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2984761894.346052</v>
+        <v>2713397932.702693</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1401578617898054</v>
+        <v>0.1403558938674651</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02771551662214353</v>
+        <v>0.02940046075934303</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>111</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1492380982.723505</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1325953467.926171</v>
+        <v>1756694354.395169</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0663173510341892</v>
+        <v>0.07483915426667349</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03880225945129956</v>
+        <v>0.0368479261842435</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>662976780.0094553</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2438155311.480563</v>
+        <v>2457197453.30048</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1123660661078592</v>
+        <v>0.09183573446208494</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04229311919959809</v>
+        <v>0.04839097798680977</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>68</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1219077692.092458</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3536369143.506288</v>
+        <v>3351887974.353977</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1526804492969814</v>
+        <v>0.1247435046269564</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04921019118699885</v>
+        <v>0.04361385731200522</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>100</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1768184629.267255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2823138605.030787</v>
+        <v>3377194827.957027</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1180924668634488</v>
+        <v>0.147640023318644</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03096834752947736</v>
+        <v>0.02559751842515193</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>112</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1411569345.550222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1182118184.201309</v>
+        <v>1074126290.944602</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1261158686171616</v>
+        <v>0.1255000004434524</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02154649796429996</v>
+        <v>0.01705308352986779</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>591059165.6532425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2260315519.177582</v>
+        <v>1995753599.344645</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1565994227972856</v>
+        <v>0.1398380385560178</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02208086224134194</v>
+        <v>0.028470226266247</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1130157758.225002</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2397449198.216736</v>
+        <v>2050469028.0928</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08517754961660218</v>
+        <v>0.06418848387080717</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04362446680734251</v>
+        <v>0.04418971945873695</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1198724597.051771</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3440944794.138814</v>
+        <v>3735495618.000909</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09870581386279287</v>
+        <v>0.126529306416546</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05663491585128773</v>
+        <v>0.04366138125012687</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>94</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1720472432.205595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1508122734.895226</v>
+        <v>1248003144.261365</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1697418451635743</v>
+        <v>0.1320083716008843</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04817374047921967</v>
+        <v>0.04826963447617496</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>754061352.028845</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2642604396.329625</v>
+        <v>3534685801.637119</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1384417335804207</v>
+        <v>0.1205946114631905</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02346057493381664</v>
+        <v>0.02433360065603994</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>100</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1321302257.443561</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1414077634.043892</v>
+        <v>1202585703.472263</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0909606909531484</v>
+        <v>0.08760355289261942</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02926616562121442</v>
+        <v>0.02492097493325257</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>707038785.7372968</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1428212850.486256</v>
+        <v>1225651595.832545</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0756158613874242</v>
+        <v>0.0982052381084936</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0242196207416031</v>
+        <v>0.03753204380526608</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>714106502.1447456</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4560546230.757856</v>
+        <v>3277321659.393144</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1076006566216834</v>
+        <v>0.1055217906992252</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01906021981798022</v>
+        <v>0.01841944523153904</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2280273097.681996</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3483358181.678136</v>
+        <v>3052656460.772902</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1521507817646162</v>
+        <v>0.09752290651891221</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04896656079637993</v>
+        <v>0.03479419154948371</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>114</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1741679144.032993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5317999394.438462</v>
+        <v>5424824928.891096</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1448271950541778</v>
+        <v>0.1401869124356941</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03990186535106827</v>
+        <v>0.03808510608532541</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>152</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2658999622.720931</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1965055578.574834</v>
+        <v>1915362061.613503</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1177981778285194</v>
+        <v>0.1155481272708844</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02716791569117598</v>
+        <v>0.03973664313382938</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>982527822.8074536</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1192182635.981799</v>
+        <v>1019438043.451998</v>
       </c>
       <c r="F31" t="n">
-        <v>0.108590187444353</v>
+        <v>0.1058463554427993</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03683242142277104</v>
+        <v>0.04217248390805678</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>596091271.302657</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1812726568.156843</v>
+        <v>1291770663.516621</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09257680900017233</v>
+        <v>0.1167219090563758</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02749040781955953</v>
+        <v>0.02705780491012839</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>906363417.2150854</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2888246152.146349</v>
+        <v>2878450860.545865</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1619603302211836</v>
+        <v>0.1473354087507795</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04074764580614065</v>
+        <v>0.04896292626723116</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>103</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1444123081.227958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1086666091.917927</v>
+        <v>1157046499.250852</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1216821128318103</v>
+        <v>0.1169250133136588</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02735251614697092</v>
+        <v>0.02464065475230885</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>543333069.5743446</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1250835509.766921</v>
+        <v>1185088686.911588</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08486941098495741</v>
+        <v>0.1042910539485608</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03155127767431774</v>
+        <v>0.03744266060686162</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>625417718.4715536</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2579775643.607371</v>
+        <v>2479499819.647357</v>
       </c>
       <c r="F36" t="n">
-        <v>0.143109462642623</v>
+        <v>0.1601668134273115</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01822124822051554</v>
+        <v>0.02089215896185012</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>88</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1289887837.41424</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2582434964.592918</v>
+        <v>2811529944.584411</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1076966909172421</v>
+        <v>0.07066421098985926</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02636496269467162</v>
+        <v>0.02608296631480943</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>91</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1291217589.695698</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1872801636.358134</v>
+        <v>2135819491.204715</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08350262259714136</v>
+        <v>0.1025944707916721</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02703115040274289</v>
+        <v>0.03044548774555764</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>936400814.782065</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1808271168.204984</v>
+        <v>1654210042.586602</v>
       </c>
       <c r="F39" t="n">
-        <v>0.144882141400584</v>
+        <v>0.1751121521061115</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03010957450805614</v>
+        <v>0.02307297441443064</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>904135607.7805746</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1232113436.725756</v>
+        <v>1418206819.087168</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1511537204130955</v>
+        <v>0.1063269617615763</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05653962449816281</v>
+        <v>0.03854253684938218</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>616056751.6085225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2128755121.341776</v>
+        <v>2077189011.775991</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1399744259015837</v>
+        <v>0.1433914157276029</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03701019293410582</v>
+        <v>0.04639291007348417</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>88</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1064377622.264681</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3371709575.40031</v>
+        <v>3350119618.330698</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1093408879812751</v>
+        <v>0.0926875702649772</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03167867798477966</v>
+        <v>0.03312257466208852</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1685854773.757901</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1945289354.123472</v>
+        <v>2806005903.474825</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1320368803857007</v>
+        <v>0.1634571680556056</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02273509960472996</v>
+        <v>0.02149872757519329</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>124</v>
-      </c>
-      <c r="J43" t="n">
-        <v>972644781.5142695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2247106618.005435</v>
+        <v>1612412561.000342</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09081309959129918</v>
+        <v>0.06826233326841505</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03437072652937059</v>
+        <v>0.02524537928397894</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1123553464.642369</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1729470495.821826</v>
+        <v>2494080978.862646</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1183626653773482</v>
+        <v>0.1244465695108206</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05140515757314854</v>
+        <v>0.05193335316300749</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>864735211.5071626</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5444474624.908211</v>
+        <v>5434511682.924247</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1471974429577891</v>
+        <v>0.1711382684975286</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05520141502063205</v>
+        <v>0.05306959364175368</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>122</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2722237364.735196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3754393408.123671</v>
+        <v>4988781994.184813</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1855705725532285</v>
+        <v>0.2025548022829653</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05122862450002545</v>
+        <v>0.03715383375266432</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>92</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1877196689.32678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4540628227.842618</v>
+        <v>4263101452.585202</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07709995118471098</v>
+        <v>0.09047021829413969</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03348483367632327</v>
+        <v>0.02958006050409738</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>113</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2270314116.878565</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1984646519.318374</v>
+        <v>1874668219.134205</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1364743659038267</v>
+        <v>0.1870428214084962</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0378652691908168</v>
+        <v>0.03756129504271676</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>992323216.3534693</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3792530644.970882</v>
+        <v>3265705239.136185</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1288461839794486</v>
+        <v>0.1625673494500835</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04599246978600546</v>
+        <v>0.04088438651386218</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>118</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1896265325.959829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1471022318.882745</v>
+        <v>1015430093.705679</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1271615800712928</v>
+        <v>0.1345241101619947</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03950878112814178</v>
+        <v>0.03730131066269147</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>735511167.0846212</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3271202908.231331</v>
+        <v>4483531896.454431</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08398181440139657</v>
+        <v>0.1389991231331856</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0605340237324155</v>
+        <v>0.0529590780153512</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>142</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1635601553.499677</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3255452290.916122</v>
+        <v>3124000037.965334</v>
       </c>
       <c r="F53" t="n">
-        <v>0.145544531700367</v>
+        <v>0.1987569066183192</v>
       </c>
       <c r="G53" t="n">
-        <v>0.030881628439792</v>
+        <v>0.0275000304014325</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>99</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1627726160.290051</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3956505607.35839</v>
+        <v>4152594093.569213</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1551093335579499</v>
+        <v>0.157567220051184</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04789892291379535</v>
+        <v>0.03508287234552194</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>113</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1978252864.341713</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4424489376.399488</v>
+        <v>3376638935.743288</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2231285530360625</v>
+        <v>0.1637962481651952</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02585853807343548</v>
+        <v>0.02650593170217537</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2212244681.835152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1492708752.986774</v>
+        <v>1228246294.750065</v>
       </c>
       <c r="F56" t="n">
-        <v>0.12405147811905</v>
+        <v>0.1649614996409068</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05809922894498848</v>
+        <v>0.03818886457070918</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>746354419.857003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4389904431.666328</v>
+        <v>4251563996.293543</v>
       </c>
       <c r="F57" t="n">
-        <v>0.128265563006694</v>
+        <v>0.143913736386316</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02463888226821559</v>
+        <v>0.02198204437551979</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>110</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2194952336.948179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1837327971.232276</v>
+        <v>1165917146.577437</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1990946149465766</v>
+        <v>0.1553491923610664</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02705482292354447</v>
+        <v>0.03639686315262235</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>918663985.9895264</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5274438591.073094</v>
+        <v>4041045575.595942</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08584873202657031</v>
+        <v>0.1205947327354729</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03120254124734844</v>
+        <v>0.04508601546362997</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2637219209.999613</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2781095664.802639</v>
+        <v>2873571452.289806</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1416461783094303</v>
+        <v>0.1279126565166332</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02619478178336873</v>
+        <v>0.02318738891664291</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>108</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1390547879.799119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3363683596.043124</v>
+        <v>2450320341.969739</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1788782435005669</v>
+        <v>0.1765466762013649</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02478087980161968</v>
+        <v>0.02241602069822352</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>118</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1681841744.192101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1970552196.040734</v>
+        <v>1396610398.748039</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1719676715324091</v>
+        <v>0.1280868571654775</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04733145423387652</v>
+        <v>0.03428182043028945</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>985276151.7001717</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5316210973.420672</v>
+        <v>3990309145.335626</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07303495024385936</v>
+        <v>0.1049138040401604</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03370243898478513</v>
+        <v>0.0327606627638763</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>98</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2658105490.397676</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4110359445.167625</v>
+        <v>4386725432.250087</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1346555054940828</v>
+        <v>0.1418140012804564</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03298592096490045</v>
+        <v>0.02154088882470388</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>107</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2055179766.205199</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3685741890.641224</v>
+        <v>5186172509.400908</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1238786839804032</v>
+        <v>0.1277471664033159</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02728523309440219</v>
+        <v>0.02185769477308218</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>123</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1842870982.67149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4289710038.266749</v>
+        <v>4017775332.636127</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1127997177413353</v>
+        <v>0.1230042313624216</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04609852299195494</v>
+        <v>0.04305793749515961</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>101</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2144855008.283931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2837344209.149717</v>
+        <v>3238191320.520913</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1021642155828007</v>
+        <v>0.06966506851502131</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0450081447992206</v>
+        <v>0.04090399138461532</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>110</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1418672136.621681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4167251160.501096</v>
+        <v>4476476880.317824</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1443095216575059</v>
+        <v>0.1556404457336401</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03265366890151004</v>
+        <v>0.04697594001819365</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2083625586.176878</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2131914255.389146</v>
+        <v>1898093280.712725</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1378364068209759</v>
+        <v>0.1247515571767265</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05449633711581228</v>
+        <v>0.05092064759319536</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1065957149.692894</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3350767390.67602</v>
+        <v>2356343343.534344</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09897251393742106</v>
+        <v>0.09631543732925212</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03287242987682649</v>
+        <v>0.03785834473984574</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>98</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1675383695.142724</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3474253887.102191</v>
+        <v>3865487696.71755</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1406363318442657</v>
+        <v>0.1285902488066553</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02681026520432037</v>
+        <v>0.02313188749663697</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>125</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1737126935.362372</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1539444128.480032</v>
+        <v>2226078231.828262</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1005558334228642</v>
+        <v>0.0879648001108411</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03661252051896344</v>
+        <v>0.0449597043778842</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>769722084.8427078</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3113499611.260193</v>
+        <v>2894633090.373071</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07410136119575986</v>
+        <v>0.08087664144066932</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03451501796110904</v>
+        <v>0.0465170053953505</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>131</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1556749791.223267</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2819316793.281008</v>
+        <v>2716630643.976481</v>
       </c>
       <c r="F74" t="n">
-        <v>0.152749153379551</v>
+        <v>0.1571491491058468</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02647327393603416</v>
+        <v>0.03134601185101953</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>117</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1409658477.634063</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1764640097.368991</v>
+        <v>2471599553.901063</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1259971809261077</v>
+        <v>0.1015871448908038</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02545067283494716</v>
+        <v>0.03063940071146293</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>882320034.8911395</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3724092115.429295</v>
+        <v>3590822173.656918</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1143267582081927</v>
+        <v>0.09981708787111003</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02262791588724422</v>
+        <v>0.02143344778681651</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1862046030.841998</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1597534394.016877</v>
+        <v>1948269942.400068</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1625670838677168</v>
+        <v>0.1801161578245463</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01992575961425684</v>
+        <v>0.02579385848403976</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>798767199.0996166</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4323008934.848258</v>
+        <v>2930723898.641144</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1187622663248635</v>
+        <v>0.1365176984759668</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05673025754628995</v>
+        <v>0.04133309844428682</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>119</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2161504410.04339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1336482075.992325</v>
+        <v>1469944983.344802</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1093982917577878</v>
+        <v>0.114420986913421</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02889859075092924</v>
+        <v>0.02623943716756879</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>668241043.5778091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3673300600.989344</v>
+        <v>5062468591.171215</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09619764650569054</v>
+        <v>0.08719023933448561</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03725090169671552</v>
+        <v>0.02452874079278409</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>73</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1836650283.736193</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4126659014.055268</v>
+        <v>4959599849.006586</v>
       </c>
       <c r="F81" t="n">
-        <v>0.136081043213777</v>
+        <v>0.1031043827271596</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02974003554534599</v>
+        <v>0.02118688857851774</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2063329474.930716</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4727943891.08482</v>
+        <v>4725830424.103971</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1599409922790897</v>
+        <v>0.1964680016780145</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02537934331745104</v>
+        <v>0.01906824734972577</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>121</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2363971944.680075</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1708996842.080626</v>
+        <v>1976858673.675553</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1169476160600224</v>
+        <v>0.1086270418116607</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0331133412035222</v>
+        <v>0.03976309377710538</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>854498370.1597319</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1659851462.782399</v>
+        <v>1999526350.592825</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09001464487572265</v>
+        <v>0.08220451990700281</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05182766595826425</v>
+        <v>0.04081018981576421</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>829925786.1945652</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2715169121.566738</v>
+        <v>2243993409.131651</v>
       </c>
       <c r="F85" t="n">
-        <v>0.117107108541079</v>
+        <v>0.1560275391369011</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03884325988005392</v>
+        <v>0.05633908359763559</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>129</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1357584589.486208</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2269639622.790192</v>
+        <v>1736990545.526111</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1272168134028026</v>
+        <v>0.1393617280747651</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02474765032340723</v>
+        <v>0.02201088449183226</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1134819876.52334</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1146938595.854837</v>
+        <v>1119342900.793907</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1301943997399118</v>
+        <v>0.1659682356434793</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0275099081330263</v>
+        <v>0.0270488991951585</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>573469339.9379179</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2298877386.246416</v>
+        <v>3400197302.785057</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1194115750369566</v>
+        <v>0.1212036587645501</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03446560465771251</v>
+        <v>0.02933892743110081</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>136</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1149438654.28654</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3068860070.002055</v>
+        <v>2646410065.800407</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1415945816755792</v>
+        <v>0.09697417369221577</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03112628375480087</v>
+        <v>0.0310165096730871</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>117</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1534430068.060252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2090741612.005269</v>
+        <v>1311450620.567884</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1099303665835816</v>
+        <v>0.09945315213318993</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05160692794865663</v>
+        <v>0.05019835339949203</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1045370892.846936</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1875025212.238315</v>
+        <v>1618823167.347524</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1340557948275043</v>
+        <v>0.1937211588837628</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04800213424791796</v>
+        <v>0.04761448020150679</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>937512595.038534</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2054839742.037342</v>
+        <v>2624101629.121962</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07226483178499066</v>
+        <v>0.07374663473339481</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03131385202498498</v>
+        <v>0.03290446407917202</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>93</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1027419821.337527</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3393243870.805135</v>
+        <v>4649844816.286454</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1062547072895261</v>
+        <v>0.1290093402265146</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04923515696893369</v>
+        <v>0.03818140428316124</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1696621975.277612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1764612879.02791</v>
+        <v>1830543991.384559</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1410706993447635</v>
+        <v>0.1383337178037275</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03293154815629151</v>
+        <v>0.03943617577048911</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
         <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>882306407.2065291</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2868959377.607481</v>
+        <v>3148079439.742043</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1382040231077216</v>
+        <v>0.1210522340131443</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03963750419929864</v>
+        <v>0.05257427572350421</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>84</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1434479698.061079</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1685248329.912292</v>
+        <v>2024088087.333318</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1275428797380799</v>
+        <v>0.1297789576031832</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0387867241281572</v>
+        <v>0.03385702153544448</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>842624185.5532633</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4892319516.885672</v>
+        <v>3260660032.153214</v>
       </c>
       <c r="F97" t="n">
-        <v>0.156892582639721</v>
+        <v>0.143467715800138</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01788061337667963</v>
+        <v>0.02501731839453864</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>111</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2446159886.591697</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3577221810.836584</v>
+        <v>3565665273.078206</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1144839152331482</v>
+        <v>0.09851446855838245</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0255636712601264</v>
+        <v>0.02925428649512162</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>90</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1788610929.269057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2734862768.706259</v>
+        <v>2225220304.174281</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1235555408381418</v>
+        <v>0.1177148023521777</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0352521803250633</v>
+        <v>0.02565424465952895</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>108</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1367431351.108748</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4396527628.691624</v>
+        <v>4773079183.705294</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1607129168173231</v>
+        <v>0.1176325764481919</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02673368016507878</v>
+        <v>0.02061729269062464</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>105</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2198263916.671096</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2821154172.853326</v>
+        <v>2397445643.803881</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1948723124707328</v>
+        <v>0.2117051883609065</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05330820093177931</v>
+        <v>0.03729040489771317</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>139</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1410577151.86129</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_344.xlsx
+++ b/output/fit_clients/fit_round_344.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2208694283.609756</v>
+        <v>1735772213.87574</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09372297079212571</v>
+        <v>0.1091437713935133</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04164871607010755</v>
+        <v>0.04255133367133027</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1949061623.52674</v>
+        <v>1757873657.516963</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1311138135544424</v>
+        <v>0.1173612718696743</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0412642192118369</v>
+        <v>0.04401844443676062</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4777972495.912186</v>
+        <v>4385889581.051463</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1666867803386663</v>
+        <v>0.129549531720849</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03718458263244758</v>
+        <v>0.02402157104151993</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3352120566.710268</v>
+        <v>2883390379.12905</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08661542297964182</v>
+        <v>0.09562513448670994</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03994852484811535</v>
+        <v>0.05065085109164191</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1781006025.392164</v>
+        <v>2748607315.88808</v>
       </c>
       <c r="F6" t="n">
-        <v>0.128360454349805</v>
+        <v>0.1150050555350949</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03939430914490818</v>
+        <v>0.03645114478163574</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2155682964.433328</v>
+        <v>2589316752.694044</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07535363458081763</v>
+        <v>0.08687853300464911</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04752945954748153</v>
+        <v>0.0445718290310531</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3833464665.727024</v>
+        <v>2444718971.696629</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2194953530097134</v>
+        <v>0.1602951662727022</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02525492062039538</v>
+        <v>0.03331429081305858</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1928044649.963453</v>
+        <v>1553659883.703816</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1438866557537952</v>
+        <v>0.1647451444592054</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03649161920681315</v>
+        <v>0.03134793466539768</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4544754301.602886</v>
+        <v>4340909042.955657</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2033006421960578</v>
+        <v>0.1324207895969965</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04937745821174195</v>
+        <v>0.03938473350929379</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3979736324.836414</v>
+        <v>3644223933.066249</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1259319041533194</v>
+        <v>0.1161872348500314</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03416825424666027</v>
+        <v>0.0327002986001351</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3196313827.986773</v>
+        <v>3298874138.560164</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1632858338874764</v>
+        <v>0.1593629639247896</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04498860730583332</v>
+        <v>0.04875994806185277</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3385881089.264128</v>
+        <v>3991734492.826128</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08528328846472452</v>
+        <v>0.08526201156436998</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02432202181010033</v>
+        <v>0.02097842871228293</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2713397932.702693</v>
+        <v>3914186116.333337</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1403558938674651</v>
+        <v>0.1362036844219246</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02940046075934303</v>
+        <v>0.04092239606213512</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1756694354.395169</v>
+        <v>1542504945.357206</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07483915426667349</v>
+        <v>0.0907968528710153</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0368479261842435</v>
+        <v>0.04464576433249033</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2457197453.30048</v>
+        <v>1902939371.45686</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09183573446208494</v>
+        <v>0.08961005813873273</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04839097798680977</v>
+        <v>0.03702172662858284</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3351887974.353977</v>
+        <v>5097221604.857386</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1247435046269564</v>
+        <v>0.1562763335522898</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04361385731200522</v>
+        <v>0.05225900078841848</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3377194827.957027</v>
+        <v>3932594410.348206</v>
       </c>
       <c r="F18" t="n">
-        <v>0.147640023318644</v>
+        <v>0.1183192487875812</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02559751842515193</v>
+        <v>0.02962431320392913</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1074126290.944602</v>
+        <v>966319618.2540183</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1255000004434524</v>
+        <v>0.1409084763873419</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01705308352986779</v>
+        <v>0.01904963825801234</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1995753599.344645</v>
+        <v>2074848381.515657</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1398380385560178</v>
+        <v>0.1200861493037924</v>
       </c>
       <c r="G20" t="n">
-        <v>0.028470226266247</v>
+        <v>0.01997727533382774</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2050469028.0928</v>
+        <v>2206045560.470511</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06418848387080717</v>
+        <v>0.09390551947954166</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04418971945873695</v>
+        <v>0.03511117906643662</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3735495618.000909</v>
+        <v>3144300854.08591</v>
       </c>
       <c r="F22" t="n">
-        <v>0.126529306416546</v>
+        <v>0.09617934602174674</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04366138125012687</v>
+        <v>0.03596484087649999</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1248003144.261365</v>
+        <v>1075803595.648672</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1320083716008843</v>
+        <v>0.1204316621524522</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04826963447617496</v>
+        <v>0.04011691947073164</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3534685801.637119</v>
+        <v>3690181098.624175</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1205946114631905</v>
+        <v>0.126343742279114</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02433360065603994</v>
+        <v>0.03211132882634578</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1202585703.472263</v>
+        <v>1355029253.989696</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08760355289261942</v>
+        <v>0.0950754423101572</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02492097493325257</v>
+        <v>0.02618321683930883</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1225651595.832545</v>
+        <v>1002558643.479011</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0982052381084936</v>
+        <v>0.1236930379770585</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03753204380526608</v>
+        <v>0.03851682466712365</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3277321659.393144</v>
+        <v>4261971599.153441</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1055217906992252</v>
+        <v>0.1520884493377612</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01841944523153904</v>
+        <v>0.02449287946413103</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3052656460.772902</v>
+        <v>3017357986.934736</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09752290651891221</v>
+        <v>0.09313358191492799</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03479419154948371</v>
+        <v>0.0362620969490936</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5424824928.891096</v>
+        <v>5023641402.090594</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1401869124356941</v>
+        <v>0.09167678494084526</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03808510608532541</v>
+        <v>0.03448700784438456</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1915362061.613503</v>
+        <v>2345490378.385431</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1155481272708844</v>
+        <v>0.09781808769832336</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03973664313382938</v>
+        <v>0.03168600256878271</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1019438043.451998</v>
+        <v>1239698851.066249</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1058463554427993</v>
+        <v>0.07098288191784786</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04217248390805678</v>
+        <v>0.05224147375798803</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1291770663.516621</v>
+        <v>1773013102.51501</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1167219090563758</v>
+        <v>0.1170486490939434</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02705780491012839</v>
+        <v>0.02416527756271166</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2878450860.545865</v>
+        <v>2039653715.038988</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1473354087507795</v>
+        <v>0.194414385354555</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04896292626723116</v>
+        <v>0.04544229424905106</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1157046499.250852</v>
+        <v>1235331044.720461</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1169250133136588</v>
+        <v>0.07715790471162472</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02464065475230885</v>
+        <v>0.02711133496105816</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1185088686.911588</v>
+        <v>940084009.1286007</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1042910539485608</v>
+        <v>0.08789765829946392</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03744266060686162</v>
+        <v>0.02849812796919893</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2479499819.647357</v>
+        <v>3194930449.414773</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1601668134273115</v>
+        <v>0.1349278529848045</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02089215896185012</v>
+        <v>0.02415106208165847</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2811529944.584411</v>
+        <v>2846447995.72052</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07066421098985926</v>
+        <v>0.07800617324143772</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02608296631480943</v>
+        <v>0.03662356368482255</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2135819491.204715</v>
+        <v>1502747723.430579</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1025944707916721</v>
+        <v>0.1149718840330184</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03044548774555764</v>
+        <v>0.02438064289250689</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1654210042.586602</v>
+        <v>2059176512.419882</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1751121521061115</v>
+        <v>0.130448302568085</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02307297441443064</v>
+        <v>0.02303786325547688</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1418206819.087168</v>
+        <v>1779269497.53462</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1063269617615763</v>
+        <v>0.1239557094381974</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03854253684938218</v>
+        <v>0.05565769282739873</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2077189011.775991</v>
+        <v>2733464737.027037</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1433914157276029</v>
+        <v>0.1396130286039592</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04639291007348417</v>
+        <v>0.03224049067036799</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3350119618.330698</v>
+        <v>3455036508.271935</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0926875702649772</v>
+        <v>0.1100403873883055</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03312257466208852</v>
+        <v>0.03202719968984463</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2806005903.474825</v>
+        <v>2317494040.741822</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1634571680556056</v>
+        <v>0.1790006141093241</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02149872757519329</v>
+        <v>0.01684004686495363</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1612412561.000342</v>
+        <v>2090917406.457588</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06826233326841505</v>
+        <v>0.07950672016707616</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02524537928397894</v>
+        <v>0.03540090009201981</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2494080978.862646</v>
+        <v>2342673994.369974</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1244465695108206</v>
+        <v>0.1399508611839429</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05193335316300749</v>
+        <v>0.04871673461429375</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5434511682.924247</v>
+        <v>5435605582.184188</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1711382684975286</v>
+        <v>0.1392754998272805</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05306959364175368</v>
+        <v>0.04699579672057385</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4988781994.184813</v>
+        <v>3190781087.028884</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2025548022829653</v>
+        <v>0.1321770888098962</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03715383375266432</v>
+        <v>0.05856355709700772</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4263101452.585202</v>
+        <v>4123649629.98739</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09047021829413969</v>
+        <v>0.07954599367720867</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02958006050409738</v>
+        <v>0.02721806309041684</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1874668219.134205</v>
+        <v>1243033528.51742</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1870428214084962</v>
+        <v>0.1553190525788404</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03756129504271676</v>
+        <v>0.04313904067327036</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3265705239.136185</v>
+        <v>2709494917.260473</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1625673494500835</v>
+        <v>0.1131606201682467</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04088438651386218</v>
+        <v>0.04369938855387667</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1015430093.705679</v>
+        <v>1047225335.407231</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1345241101619947</v>
+        <v>0.1610511839972832</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03730131066269147</v>
+        <v>0.04873854804917781</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4483531896.454431</v>
+        <v>4704767337.881282</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1389991231331856</v>
+        <v>0.08528922543587064</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0529590780153512</v>
+        <v>0.04445249769637721</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3124000037.965334</v>
+        <v>3044969873.522645</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1987569066183192</v>
+        <v>0.1702754438829357</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0275000304014325</v>
+        <v>0.02963890382025897</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4152594093.569213</v>
+        <v>4904865846.014309</v>
       </c>
       <c r="F54" t="n">
-        <v>0.157567220051184</v>
+        <v>0.1107141440258894</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03508287234552194</v>
+        <v>0.05038569621566126</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3376638935.743288</v>
+        <v>4358907431.938278</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1637962481651952</v>
+        <v>0.2161199930368962</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02650593170217537</v>
+        <v>0.03069206521705641</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1228246294.750065</v>
+        <v>1170440488.279087</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1649614996409068</v>
+        <v>0.1562733397636073</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03818886457070918</v>
+        <v>0.03915971837991208</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4251563996.293543</v>
+        <v>4197700932.341078</v>
       </c>
       <c r="F57" t="n">
-        <v>0.143913736386316</v>
+        <v>0.1346489749249968</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02198204437551979</v>
+        <v>0.0234625049555526</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1165917146.577437</v>
+        <v>1628730540.686809</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1553491923610664</v>
+        <v>0.1855610499759741</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03639686315262235</v>
+        <v>0.03422279708104371</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4041045575.595942</v>
+        <v>3423651232.035723</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1205947327354729</v>
+        <v>0.09933874740121378</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04508601546362997</v>
+        <v>0.04838028327817452</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2873571452.289806</v>
+        <v>3603804214.066655</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1279126565166332</v>
+        <v>0.1659379768124368</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02318738891664291</v>
+        <v>0.02864049678279402</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2450320341.969739</v>
+        <v>2454361175.763141</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1765466762013649</v>
+        <v>0.1286339886563567</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02241602069822352</v>
+        <v>0.02287045292073422</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1396610398.748039</v>
+        <v>1604844399.996932</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1280868571654775</v>
+        <v>0.1222110847931561</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03428182043028945</v>
+        <v>0.04541340059523207</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3990309145.335626</v>
+        <v>4885891047.14669</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1049138040401604</v>
+        <v>0.07105672107816671</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0327606627638763</v>
+        <v>0.03888669866297467</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4386725432.250087</v>
+        <v>3962174464.175103</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1418140012804564</v>
+        <v>0.1258725525682671</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02154088882470388</v>
+        <v>0.02747524021399812</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5186172509.400908</v>
+        <v>5130304523.074205</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1277471664033159</v>
+        <v>0.1580290152076554</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02185769477308218</v>
+        <v>0.03236298484534465</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4017775332.636127</v>
+        <v>4225546270.360422</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1230042313624216</v>
+        <v>0.1286639621714076</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04305793749515961</v>
+        <v>0.04736746035082576</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3238191320.520913</v>
+        <v>3375974656.829148</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06966506851502131</v>
+        <v>0.0692422943212158</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04090399138461532</v>
+        <v>0.04923274863382301</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4476476880.317824</v>
+        <v>4837633278.237353</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1556404457336401</v>
+        <v>0.1221084835301639</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04697594001819365</v>
+        <v>0.03772929979995946</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1898093280.712725</v>
+        <v>1540765342.738915</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1247515571767265</v>
+        <v>0.1309686228304039</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05092064759319536</v>
+        <v>0.04630806190578068</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2356343343.534344</v>
+        <v>3022014946.747615</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09631543732925212</v>
+        <v>0.08707756818591182</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03785834473984574</v>
+        <v>0.03527506960250226</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3865487696.71755</v>
+        <v>4395329998.651527</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1285902488066553</v>
+        <v>0.1444129376269505</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02313188749663697</v>
+        <v>0.0236470193630409</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2226078231.828262</v>
+        <v>1734677173.575434</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0879648001108411</v>
+        <v>0.06545162605067406</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0449597043778842</v>
+        <v>0.04642612842771167</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2894633090.373071</v>
+        <v>2217125743.890835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08087664144066932</v>
+        <v>0.1032561181618088</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0465170053953505</v>
+        <v>0.03918369202804683</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2716630643.976481</v>
+        <v>2665777194.091637</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1571491491058468</v>
+        <v>0.1588830797581036</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03134601185101953</v>
+        <v>0.03040281346010587</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2471599553.901063</v>
+        <v>2116699644.994265</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1015871448908038</v>
+        <v>0.1647831034264692</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03063940071146293</v>
+        <v>0.02545409318194579</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3590822173.656918</v>
+        <v>5055237219.808846</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09981708787111003</v>
+        <v>0.111693098143535</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02143344778681651</v>
+        <v>0.02755691048157114</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1948269942.400068</v>
+        <v>1974236978.618571</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1801161578245463</v>
+        <v>0.1726763290391657</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02579385848403976</v>
+        <v>0.02869574127772599</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2930723898.641144</v>
+        <v>4232582802.241967</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1365176984759668</v>
+        <v>0.1261813144841311</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04133309844428682</v>
+        <v>0.05543216576772233</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1469944983.344802</v>
+        <v>1714506923.019566</v>
       </c>
       <c r="F79" t="n">
-        <v>0.114420986913421</v>
+        <v>0.1402715544696011</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02623943716756879</v>
+        <v>0.03003766957296133</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5062468591.171215</v>
+        <v>3838195026.626546</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08719023933448561</v>
+        <v>0.1110500532905221</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02452874079278409</v>
+        <v>0.03186281190530944</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4959599849.006586</v>
+        <v>3391236309.987926</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1031043827271596</v>
+        <v>0.1126965420320676</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02118688857851774</v>
+        <v>0.02070162408472521</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4725830424.103971</v>
+        <v>3483445545.805465</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1964680016780145</v>
+        <v>0.2168260927219695</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01906824734972577</v>
+        <v>0.02853916926335646</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1976858673.675553</v>
+        <v>1841677060.939824</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1086270418116607</v>
+        <v>0.1582906070938959</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03976309377710538</v>
+        <v>0.03877684649966245</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1999526350.592825</v>
+        <v>1885168594.163992</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08220451990700281</v>
+        <v>0.08173024992178768</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04081018981576421</v>
+        <v>0.05224499775606534</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2243993409.131651</v>
+        <v>2494970981.086265</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1560275391369011</v>
+        <v>0.1594226648512763</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05633908359763559</v>
+        <v>0.05039508629093131</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1736990545.526111</v>
+        <v>1775789968.247992</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1393617280747651</v>
+        <v>0.1282678620470425</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02201088449183226</v>
+        <v>0.0261531807625801</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1119342900.793907</v>
+        <v>1354068643.433372</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1659682356434793</v>
+        <v>0.1651909326634868</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0270488991951585</v>
+        <v>0.0362425550972246</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3400197302.785057</v>
+        <v>2422792653.616485</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1212036587645501</v>
+        <v>0.1468460637529135</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02933892743110081</v>
+        <v>0.02995957660226614</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2646410065.800407</v>
+        <v>2157551178.855667</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09697417369221577</v>
+        <v>0.1564494895632728</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0310165096730871</v>
+        <v>0.04110456389191772</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1311450620.567884</v>
+        <v>1649046297.766647</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09945315213318993</v>
+        <v>0.1119440576554648</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05019835339949203</v>
+        <v>0.05652450703076801</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1618823167.347524</v>
+        <v>1461115252.661584</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1937211588837628</v>
+        <v>0.1435841973449328</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04761448020150679</v>
+        <v>0.04910507029746022</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2624101629.121962</v>
+        <v>2202973050.340228</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07374663473339481</v>
+        <v>0.1074952713208637</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03290446407917202</v>
+        <v>0.03752491024815122</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4649844816.286454</v>
+        <v>4110736893.552059</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1290093402265146</v>
+        <v>0.1084011154362625</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03818140428316124</v>
+        <v>0.04875866106379577</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1830543991.384559</v>
+        <v>2167004729.568849</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1383337178037275</v>
+        <v>0.1131948839060672</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03943617577048911</v>
+        <v>0.03500992637494695</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3148079439.742043</v>
+        <v>2029093115.454994</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1210522340131443</v>
+        <v>0.1384190344141766</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05257427572350421</v>
+        <v>0.0477735237010629</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2024088087.333318</v>
+        <v>2319124557.575168</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1297789576031832</v>
+        <v>0.1162864715844238</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03385702153544448</v>
+        <v>0.03301161319062428</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3260660032.153214</v>
+        <v>4203711848.789521</v>
       </c>
       <c r="F97" t="n">
-        <v>0.143467715800138</v>
+        <v>0.1420666465943865</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02501731839453864</v>
+        <v>0.02663687726644765</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3565665273.078206</v>
+        <v>3673549193.277263</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09851446855838245</v>
+        <v>0.1253399833493626</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02925428649512162</v>
+        <v>0.02574105079598038</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2225220304.174281</v>
+        <v>2978064326.234191</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1177148023521777</v>
+        <v>0.09737453822409436</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02565424465952895</v>
+        <v>0.0327861874642078</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4773079183.705294</v>
+        <v>4159514507.320354</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1176325764481919</v>
+        <v>0.1119839566554129</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02061729269062464</v>
+        <v>0.0282290442723438</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2397445643.803881</v>
+        <v>2263573046.206089</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2117051883609065</v>
+        <v>0.1392734578846963</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03729040489771317</v>
+        <v>0.05142804318318253</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_344.xlsx
+++ b/output/fit_clients/fit_round_344.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1735772213.87574</v>
+        <v>1906184822.969808</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1091437713935133</v>
+        <v>0.09657634811225933</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04255133367133027</v>
+        <v>0.03783287936784372</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1757873657.516963</v>
+        <v>1825080866.249374</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1173612718696743</v>
+        <v>0.1289664056069863</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04401844443676062</v>
+        <v>0.04787164127380815</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4385889581.051463</v>
+        <v>5134721609.731297</v>
       </c>
       <c r="F4" t="n">
-        <v>0.129549531720849</v>
+        <v>0.1324106313876565</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02402157104151993</v>
+        <v>0.03828139262608955</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>178</v>
+      </c>
+      <c r="J4" t="n">
+        <v>344</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2883390379.12905</v>
+        <v>3901971714.53345</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09562513448670994</v>
+        <v>0.08553615407855555</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05065085109164191</v>
+        <v>0.03408833434593785</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>136</v>
+      </c>
+      <c r="J5" t="n">
+        <v>344</v>
+      </c>
+      <c r="K5" t="n">
+        <v>84.30616594221006</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2748607315.88808</v>
+        <v>1905715922.898081</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1150050555350949</v>
+        <v>0.138515394523299</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03645114478163574</v>
+        <v>0.03826470298234242</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2589316752.694044</v>
+        <v>2062152173.698302</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08687853300464911</v>
+        <v>0.08563743361216355</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0445718290310531</v>
+        <v>0.04100346638319421</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2444718971.696629</v>
+        <v>2643217096.120274</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1602951662727022</v>
+        <v>0.141796468860263</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03331429081305858</v>
+        <v>0.0214403142130161</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>90</v>
+      </c>
+      <c r="J8" t="n">
+        <v>343</v>
+      </c>
+      <c r="K8" t="n">
+        <v>36.72049223168383</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1553659883.703816</v>
+        <v>1667950225.252318</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1647451444592054</v>
+        <v>0.1802162799700537</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03134793466539768</v>
+        <v>0.0373977641229812</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4340909042.955657</v>
+        <v>5666004675.989551</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1324207895969965</v>
+        <v>0.1845230639669909</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03938473350929379</v>
+        <v>0.05464168201962617</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>292</v>
+      </c>
+      <c r="J10" t="n">
+        <v>344</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3644223933.066249</v>
+        <v>3183978217.530133</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1161872348500314</v>
+        <v>0.167636171204517</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0327002986001351</v>
+        <v>0.03883931416136919</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>141</v>
+      </c>
+      <c r="J11" t="n">
+        <v>343</v>
+      </c>
+      <c r="K11" t="n">
+        <v>51.91579941761564</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3298874138.560164</v>
+        <v>2163892585.827175</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1593629639247896</v>
+        <v>0.1572723132689041</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04875994806185277</v>
+        <v>0.04283712961650547</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3991734492.826128</v>
+        <v>5187946075.569884</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08526201156436998</v>
+        <v>0.06177663262927109</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02097842871228293</v>
+        <v>0.02564537338000997</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>178</v>
+      </c>
+      <c r="J13" t="n">
+        <v>344</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3914186116.333337</v>
+        <v>2636468465.632873</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1362036844219246</v>
+        <v>0.1222514766087283</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04092239606213512</v>
+        <v>0.03449758154651346</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>69</v>
+      </c>
+      <c r="J14" t="n">
+        <v>336</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1542504945.357206</v>
+        <v>1680439234.597038</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0907968528710153</v>
+        <v>0.0765979579942912</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04464576433249033</v>
+        <v>0.04915541363110757</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1902939371.45686</v>
+        <v>2644045773.176387</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08961005813873273</v>
+        <v>0.1054194377307341</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03702172662858284</v>
+        <v>0.03885739426197923</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5097221604.857386</v>
+        <v>5199701894.703304</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1562763335522898</v>
+        <v>0.1166357151636963</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05225900078841848</v>
+        <v>0.05240594526355701</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>162</v>
+      </c>
+      <c r="J17" t="n">
+        <v>344</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3932594410.348206</v>
+        <v>3111557842.624308</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1183192487875812</v>
+        <v>0.1213100457964018</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02962431320392913</v>
+        <v>0.03232146903711757</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>83</v>
+      </c>
+      <c r="J18" t="n">
+        <v>336</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>966319618.2540183</v>
+        <v>1088189928.451133</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1409084763873419</v>
+        <v>0.1380615446802385</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01904963825801234</v>
+        <v>0.01656596238443379</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2074848381.515657</v>
+        <v>2133261050.994623</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1200861493037924</v>
+        <v>0.1471244616252456</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01997727533382774</v>
+        <v>0.02014610690596013</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2206045560.470511</v>
+        <v>1788179346.809242</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09390551947954166</v>
+        <v>0.0850098616311642</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03511117906643662</v>
+        <v>0.02971355971169663</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3144300854.08591</v>
+        <v>2988266001.866257</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09617934602174674</v>
+        <v>0.1046180310178824</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03596484087649999</v>
+        <v>0.04066793666836252</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>93</v>
+      </c>
+      <c r="J22" t="n">
+        <v>338</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1075803595.648672</v>
+        <v>1496667801.152972</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1204316621524522</v>
+        <v>0.1371123001339347</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04011691947073164</v>
+        <v>0.0439991966685104</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1277,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3690181098.624175</v>
+        <v>3338844441.589548</v>
       </c>
       <c r="F24" t="n">
-        <v>0.126343742279114</v>
+        <v>0.1395741237305168</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03211132882634578</v>
+        <v>0.03048420330820813</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>102</v>
+      </c>
+      <c r="J24" t="n">
+        <v>342</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1355029253.989696</v>
+        <v>1448043559.260873</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0950754423101572</v>
+        <v>0.09749663407700829</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02618321683930883</v>
+        <v>0.02483136772136931</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1002558643.479011</v>
+        <v>1178926891.19496</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1236930379770585</v>
+        <v>0.07627035560313906</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03851682466712365</v>
+        <v>0.02537013355214972</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4261971599.153441</v>
+        <v>4671396508.822954</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1520884493377612</v>
+        <v>0.1148987764449389</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02449287946413103</v>
+        <v>0.01891639336337754</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>143</v>
+      </c>
+      <c r="J27" t="n">
+        <v>343</v>
+      </c>
+      <c r="K27" t="n">
+        <v>65.72876201434855</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3017357986.934736</v>
+        <v>2504816226.439558</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09313358191492799</v>
+        <v>0.142389622690042</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0362620969490936</v>
+        <v>0.03708481719904588</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>77</v>
+      </c>
+      <c r="J28" t="n">
+        <v>343</v>
+      </c>
+      <c r="K28" t="n">
+        <v>33.6436566856035</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5023641402.090594</v>
+        <v>5896012532.542797</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09167678494084526</v>
+        <v>0.1147169634844037</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03448700784438456</v>
+        <v>0.02874506167031348</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>310</v>
+      </c>
+      <c r="J29" t="n">
+        <v>343</v>
+      </c>
+      <c r="K29" t="n">
+        <v>66.00062934029545</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2345490378.385431</v>
+        <v>2044596583.527276</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09781808769832336</v>
+        <v>0.1385538946148099</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03168600256878271</v>
+        <v>0.04008430406296679</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1239698851.066249</v>
+        <v>1402448002.337295</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07098288191784786</v>
+        <v>0.1101539325265444</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05224147375798803</v>
+        <v>0.0508411049816787</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1773013102.51501</v>
+        <v>1277181256.26386</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1170486490939434</v>
+        <v>0.07378190551245782</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02416527756271166</v>
+        <v>0.03524192409156924</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2039653715.038988</v>
+        <v>2636492683.938558</v>
       </c>
       <c r="F33" t="n">
-        <v>0.194414385354555</v>
+        <v>0.1722939481742992</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04544229424905106</v>
+        <v>0.04998167972351793</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1235331044.720461</v>
+        <v>1020574520.839082</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07715790471162472</v>
+        <v>0.09331612654421371</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02711133496105816</v>
+        <v>0.02690475344057905</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>940084009.1286007</v>
+        <v>844277821.4400567</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08789765829946392</v>
+        <v>0.0996047364964182</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02849812796919893</v>
+        <v>0.0364948102259057</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3194930449.414773</v>
+        <v>2209465746.876136</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1349278529848045</v>
+        <v>0.166039669559021</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02415106208165847</v>
+        <v>0.02784991573612429</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2846447995.72052</v>
+        <v>2072116771.615945</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07800617324143772</v>
+        <v>0.1039566125078058</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03662356368482255</v>
+        <v>0.0424367164375152</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1502747723.430579</v>
+        <v>1890959645.109797</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1149718840330184</v>
+        <v>0.1145395629151847</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02438064289250689</v>
+        <v>0.03896113710075322</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2059176512.419882</v>
+        <v>1484048027.899561</v>
       </c>
       <c r="F39" t="n">
-        <v>0.130448302568085</v>
+        <v>0.1244043271531322</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02303786325547688</v>
+        <v>0.03204042058854779</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1779269497.53462</v>
+        <v>1583756510.271723</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1239557094381974</v>
+        <v>0.1135974800682457</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05565769282739873</v>
+        <v>0.0460040741318536</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2733464737.027037</v>
+        <v>2439492435.085801</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1396130286039592</v>
+        <v>0.1058704497082293</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03224049067036799</v>
+        <v>0.03881616146790968</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3455036508.271935</v>
+        <v>2626607140.582489</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1100403873883055</v>
+        <v>0.09650332843336028</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03202719968984463</v>
+        <v>0.03262417436138255</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>150</v>
+      </c>
+      <c r="J42" t="n">
+        <v>343</v>
+      </c>
+      <c r="K42" t="n">
+        <v>32.98363597373927</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2317494040.741822</v>
+        <v>3031059412.80173</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1790006141093241</v>
+        <v>0.1310893977939127</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01684004686495363</v>
+        <v>0.02356623083226443</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2090917406.457588</v>
+        <v>2258835020.521437</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07950672016707616</v>
+        <v>0.08881793988993492</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03540090009201981</v>
+        <v>0.02778944228914434</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2342673994.369974</v>
+        <v>2494962509.465347</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1399508611839429</v>
+        <v>0.1819131270025373</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04871673461429375</v>
+        <v>0.04650872957162384</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5435605582.184188</v>
+        <v>5402215022.654847</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1392754998272805</v>
+        <v>0.138863238538162</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04699579672057385</v>
+        <v>0.0614254662298621</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>206</v>
+      </c>
+      <c r="J46" t="n">
+        <v>344</v>
+      </c>
+      <c r="K46" t="n">
+        <v>67.57880373824615</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3190781087.028884</v>
+        <v>4142684223.528055</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1321770888098962</v>
+        <v>0.1977716979223927</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05856355709700772</v>
+        <v>0.05209241080870278</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>153</v>
+      </c>
+      <c r="J47" t="n">
+        <v>344</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4123649629.98739</v>
+        <v>4494439060.832561</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07954599367720867</v>
+        <v>0.1094807620598219</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02721806309041684</v>
+        <v>0.02729959051535243</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>170</v>
+      </c>
+      <c r="J48" t="n">
+        <v>344</v>
+      </c>
+      <c r="K48" t="n">
+        <v>75.36776189390309</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1243033528.51742</v>
+        <v>1369678194.095581</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1553190525788404</v>
+        <v>0.1397739726938461</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04313904067327036</v>
+        <v>0.02768799857210475</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2709494917.260473</v>
+        <v>3813753433.195484</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1131606201682467</v>
+        <v>0.1746154648963603</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04369938855387667</v>
+        <v>0.05272790043912304</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>113</v>
+      </c>
+      <c r="J50" t="n">
+        <v>344</v>
+      </c>
+      <c r="K50" t="n">
+        <v>71.43995297690374</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1047225335.407231</v>
+        <v>1454564250.133555</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1610511839972832</v>
+        <v>0.1411093085659086</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04873854804917781</v>
+        <v>0.05282061866326451</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2271,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4704767337.881282</v>
+        <v>3451628615.031842</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08528922543587064</v>
+        <v>0.08940286776029475</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04445249769637721</v>
+        <v>0.05049549519046103</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>206</v>
+      </c>
+      <c r="J52" t="n">
+        <v>343</v>
+      </c>
+      <c r="K52" t="n">
+        <v>51.56469395009169</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3044969873.522645</v>
+        <v>2499713484.387679</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1702754438829357</v>
+        <v>0.1335160250749407</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02963890382025897</v>
+        <v>0.02400837883116886</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>50</v>
+      </c>
+      <c r="J53" t="n">
+        <v>341</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4904865846.014309</v>
+        <v>3136735770.901697</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1107141440258894</v>
+        <v>0.1342552678169358</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05038569621566126</v>
+        <v>0.04188601989137601</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>181</v>
+      </c>
+      <c r="J54" t="n">
+        <v>342</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4358907431.938278</v>
+        <v>4034889623.772221</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2161199930368962</v>
+        <v>0.1766593937863636</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03069206521705641</v>
+        <v>0.0222400683549506</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>164</v>
+      </c>
+      <c r="J55" t="n">
+        <v>344</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1170440488.279087</v>
+        <v>1159787401.724697</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1562733397636073</v>
+        <v>0.1292390885168959</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03915971837991208</v>
+        <v>0.04670951137200877</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4197700932.341078</v>
+        <v>3646417345.432446</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1346489749249968</v>
+        <v>0.1381361199870978</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0234625049555526</v>
+        <v>0.02506177596560084</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>141</v>
+      </c>
+      <c r="J57" t="n">
+        <v>342</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1628730540.686809</v>
+        <v>1197551498.84712</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1855610499759741</v>
+        <v>0.1704193586435267</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03422279708104371</v>
+        <v>0.03741640195758681</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3423651232.035723</v>
+        <v>4742308858.481704</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09933874740121378</v>
+        <v>0.1126250387167071</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04838028327817452</v>
+        <v>0.03544325525661687</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>166</v>
+      </c>
+      <c r="J59" t="n">
+        <v>343</v>
+      </c>
+      <c r="K59" t="n">
+        <v>65.61830733153262</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3603804214.066655</v>
+        <v>3746854980.922828</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1659379768124368</v>
+        <v>0.1487797022442637</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02864049678279402</v>
+        <v>0.03252949280073012</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>60</v>
+      </c>
+      <c r="J60" t="n">
+        <v>344</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2454361175.763141</v>
+        <v>3135281900.295143</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1286339886563567</v>
+        <v>0.1445865750696692</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02287045292073422</v>
+        <v>0.02885184804347673</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1604844399.996932</v>
+        <v>1477787842.913132</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1222110847931561</v>
+        <v>0.1315113474688683</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04541340059523207</v>
+        <v>0.03549852039730129</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4885891047.14669</v>
+        <v>4234747725.00252</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07105672107816671</v>
+        <v>0.07260966042543394</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03888669866297467</v>
+        <v>0.03719963074851624</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>168</v>
+      </c>
+      <c r="J63" t="n">
+        <v>344</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3962174464.175103</v>
+        <v>4027822389.820095</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1258725525682671</v>
+        <v>0.1335780580894138</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02747524021399812</v>
+        <v>0.02668292527283386</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>170</v>
+      </c>
+      <c r="J64" t="n">
+        <v>344</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2730,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5130304523.074205</v>
+        <v>4484668120.845706</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1580290152076554</v>
+        <v>0.1167007188011834</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03236298484534465</v>
+        <v>0.02568752958353299</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>266</v>
+      </c>
+      <c r="J65" t="n">
+        <v>344</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4225546270.360422</v>
+        <v>4851592126.028234</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1286639621714076</v>
+        <v>0.1319221378905233</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04736746035082576</v>
+        <v>0.0316493481894957</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>170</v>
+      </c>
+      <c r="J66" t="n">
+        <v>343</v>
+      </c>
+      <c r="K66" t="n">
+        <v>61.67258541141155</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3375974656.829148</v>
+        <v>3424144651.440876</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0692422943212158</v>
+        <v>0.0842818934710325</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04923274863382301</v>
+        <v>0.04054837327490361</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4837633278.237353</v>
+        <v>5240019204.042818</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1221084835301639</v>
+        <v>0.1130129289490068</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03772929979995946</v>
+        <v>0.04957408066554057</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>187</v>
+      </c>
+      <c r="J68" t="n">
+        <v>343</v>
+      </c>
+      <c r="K68" t="n">
+        <v>67.29606090812483</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1540765342.738915</v>
+        <v>1736969270.047969</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1309686228304039</v>
+        <v>0.1149757360535681</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04630806190578068</v>
+        <v>0.03727302292239774</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3022014946.747615</v>
+        <v>3707857690.441176</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08707756818591182</v>
+        <v>0.09934228468347399</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03527506960250226</v>
+        <v>0.0342759224817842</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>332</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4395329998.651527</v>
+        <v>3904911152.113907</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1444129376269505</v>
+        <v>0.1450980431880598</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0236470193630409</v>
+        <v>0.02767541615461437</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>252</v>
+      </c>
+      <c r="J71" t="n">
+        <v>344</v>
+      </c>
+      <c r="K71" t="n">
+        <v>67.32285735652688</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1734677173.575434</v>
+        <v>1778914753.739518</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06545162605067406</v>
+        <v>0.09641292264364167</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04642612842771167</v>
+        <v>0.04961379598056176</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2217125743.890835</v>
+        <v>3294432398.565814</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1032561181618088</v>
+        <v>0.08355107526694899</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03918369202804683</v>
+        <v>0.04609967985301843</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2665777194.091637</v>
+        <v>3965541395.464707</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1588830797581036</v>
+        <v>0.1292181589157626</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03040281346010587</v>
+        <v>0.02724330594976086</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>93</v>
+      </c>
+      <c r="J74" t="n">
+        <v>344</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2116699644.994265</v>
+        <v>1816058956.737598</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1647831034264692</v>
+        <v>0.10468954077922</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02545409318194579</v>
+        <v>0.03127219780730085</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5055237219.808846</v>
+        <v>4788894141.914884</v>
       </c>
       <c r="F76" t="n">
-        <v>0.111693098143535</v>
+        <v>0.1133284213416284</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02755691048157114</v>
+        <v>0.02936318816258828</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>162</v>
+      </c>
+      <c r="J76" t="n">
+        <v>344</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1974236978.618571</v>
+        <v>2155117785.475596</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1726763290391657</v>
+        <v>0.1648560678709541</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02869574127772599</v>
+        <v>0.02985215588197091</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4232582802.241967</v>
+        <v>4708017524.896089</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1261813144841311</v>
+        <v>0.1326134882485765</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05543216576772233</v>
+        <v>0.05293956601043656</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>171</v>
+      </c>
+      <c r="J78" t="n">
+        <v>343</v>
+      </c>
+      <c r="K78" t="n">
+        <v>66.63539097119647</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1714506923.019566</v>
+        <v>1334480512.424583</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1402715544696011</v>
+        <v>0.1447275528867339</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03003766957296133</v>
+        <v>0.0396530294644587</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3838195026.626546</v>
+        <v>3997637670.96633</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1110500532905221</v>
+        <v>0.09451340737310496</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03186281190530944</v>
+        <v>0.03106034066635066</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>168</v>
+      </c>
+      <c r="J80" t="n">
+        <v>344</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3391236309.987926</v>
+        <v>5017614539.571192</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1126965420320676</v>
+        <v>0.09630112645843272</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02070162408472521</v>
+        <v>0.0285436701117947</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>159</v>
+      </c>
+      <c r="J81" t="n">
+        <v>343</v>
+      </c>
+      <c r="K81" t="n">
+        <v>61.86908868351929</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3483445545.805465</v>
+        <v>4550081886.838516</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2168260927219695</v>
+        <v>0.191541061229676</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02853916926335646</v>
+        <v>0.01934865518112925</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>245</v>
+      </c>
+      <c r="J82" t="n">
+        <v>344</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1841677060.939824</v>
+        <v>1889379212.701458</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1582906070938959</v>
+        <v>0.1291668473885129</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03877684649966245</v>
+        <v>0.03547991399229569</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1885168594.163992</v>
+        <v>2192558097.482947</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08173024992178768</v>
+        <v>0.1093224180336237</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05224499775606534</v>
+        <v>0.04632884271855303</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2494970981.086265</v>
+        <v>2343929552.352302</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1594226648512763</v>
+        <v>0.1775179565070552</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05039508629093131</v>
+        <v>0.0346796757623774</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="n">
+        <v>33.47432982976788</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1775789968.247992</v>
+        <v>2058074015.754914</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1282678620470425</v>
+        <v>0.1382460803322685</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0261531807625801</v>
+        <v>0.02414656815228394</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1354068643.433372</v>
+        <v>1008407774.112052</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1651909326634868</v>
+        <v>0.1242280148684119</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0362425550972246</v>
+        <v>0.02987868929113993</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2422792653.616485</v>
+        <v>2568864041.883236</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1468460637529135</v>
+        <v>0.1776927211265701</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02995957660226614</v>
+        <v>0.02436903134962703</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2157551178.855667</v>
+        <v>3426917567.926374</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1564494895632728</v>
+        <v>0.1060396325177305</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04110456389191772</v>
+        <v>0.04074825967230822</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1649046297.766647</v>
+        <v>1818352388.985662</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1119440576554648</v>
+        <v>0.1210102781233384</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05652450703076801</v>
+        <v>0.0374598271393614</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1461115252.661584</v>
+        <v>1626812055.027332</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1435841973449328</v>
+        <v>0.1201056299271282</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04910507029746022</v>
+        <v>0.05127972696330816</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2202973050.340228</v>
+        <v>2915605016.025831</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1074952713208637</v>
+        <v>0.06811087464583346</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03752491024815122</v>
+        <v>0.04140974666894945</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4110736893.552059</v>
+        <v>4265092354.804389</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1084011154362625</v>
+        <v>0.1190034281448765</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04875866106379577</v>
+        <v>0.0378083236333505</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>158</v>
+      </c>
+      <c r="J93" t="n">
+        <v>344</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2167004729.568849</v>
+        <v>1786070582.988842</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1131948839060672</v>
+        <v>0.1571070123129819</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03500992637494695</v>
+        <v>0.03833126742249202</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2029093115.454994</v>
+        <v>3134326066.447315</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1384190344141766</v>
+        <v>0.1255333323717768</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0477735237010629</v>
+        <v>0.04292924269658877</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2319124557.575168</v>
+        <v>2074676912.787618</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1162864715844238</v>
+        <v>0.1290788101717767</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03301161319062428</v>
+        <v>0.03976798906485834</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4203711848.789521</v>
+        <v>3927920465.266306</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1420666465943865</v>
+        <v>0.1463819844630095</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02663687726644765</v>
+        <v>0.02845161325161621</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>177</v>
+      </c>
+      <c r="J97" t="n">
+        <v>343</v>
+      </c>
+      <c r="K97" t="n">
+        <v>67.14310460585381</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3673549193.277263</v>
+        <v>3457509850.289139</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1253399833493626</v>
+        <v>0.1175315548911548</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02574105079598038</v>
+        <v>0.02193018329924701</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>86</v>
+      </c>
+      <c r="J98" t="n">
+        <v>340</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2978064326.234191</v>
+        <v>3160192116.04013</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09737453822409436</v>
+        <v>0.1323867879034847</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0327861874642078</v>
+        <v>0.03051381654312272</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4159514507.320354</v>
+        <v>2996150217.474037</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1119839566554129</v>
+        <v>0.1096965944601531</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0282290442723438</v>
+        <v>0.02782324393163676</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>156</v>
+      </c>
+      <c r="J100" t="n">
+        <v>343</v>
+      </c>
+      <c r="K100" t="n">
+        <v>39.692747832375</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2263573046.206089</v>
+        <v>2446191707.203535</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1392734578846963</v>
+        <v>0.1529119687091061</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05142804318318253</v>
+        <v>0.05379151727674542</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
